--- a/biology/Médecine/Whistle_Blower_(film)/Whistle_Blower_(film).xlsx
+++ b/biology/Médecine/Whistle_Blower_(film)/Whistle_Blower_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Whistle Blower (제보자, Jeboja) est un film sud-coréen réalisé par Yim Soon-rye, sorti en 2014.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yoon Min-cheol, journaliste d'investigation, enquête sur une clinique spécialisée dans la fertilité.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Whistle Blower
 Titre original : 제보자 (Jeboja)
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Park Hae-il : Yoon Min-cheol
 Lee Geung-young : Lee Jang-hwan
@@ -619,9 +637,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été nommé pour quatre Blue Dragon Film Awards[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été nommé pour quatre Blue Dragon Film Awards
 </t>
         </is>
       </c>
